--- a/Code/_Dennis_Sandbox/InterimPresentation.xlsx
+++ b/Code/_Dennis_Sandbox/InterimPresentation.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Data-Den\GitHub\Capstone\Code\_Dennis_Sandbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC463382-3A9D-420C-BAA7-EC3AF0137CEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0714C167-812A-4C90-BD3F-7E3E60B6B147}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Preliminary Results TOR (2)" sheetId="5" r:id="rId1"/>
-    <sheet name="Preliminary Results TOR" sheetId="4" r:id="rId2"/>
+    <sheet name="Preliminary Results TOR (3)" sheetId="6" r:id="rId1"/>
+    <sheet name="Preliminary Results TOR (2)" sheetId="5" r:id="rId2"/>
     <sheet name="Preliminary Results ALL (2)" sheetId="3" r:id="rId3"/>
-    <sheet name="Preliminary Results ALL" sheetId="1" r:id="rId4"/>
-    <sheet name="Short Assignment" sheetId="2" r:id="rId5"/>
+    <sheet name="Short Assignment" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="111">
   <si>
     <t>['PLAYER_ID',</t>
   </si>
@@ -350,12 +349,6 @@
     <t>----------------- Logistic Regression -------------------- Accuracy: 0.7102 F1 score: 0.7139 Recall: 0.7131 Precision: 0.7148 Sensitivity : 0.7073 Specificity : 0.7131 clasification report: precision recall f1-score support 0.0 0.71 0.71 0.71 4086 1.0 0.71 0.71 0.71 4203 accuracy 0.71 8289 macro avg 0.71 0.71 0.71 8289 weighted avg 0.71 0.71 0.71 8289 confussion matrix: [[2890 1196] [1206 2997]] Feature Importance</t>
   </si>
   <si>
-    <t>-------------------- Decision Tree ----------------------- Accuracy: 0.6533 F1 score: 0.6551 Recall: 0.6495 Precision: 0.6609 Sensitivity : 0.6571 Specificity : 0.6495 clasification report: precision recall f1-score support 0.0 0.65 0.66 0.65 4086 1.0 0.66 0.65 0.66 4203 accuracy 0.65 8289 macro avg 0.65 0.65 0.65 8289 weighted avg 0.65 0.65 0.65 8289 confussion matrix: [[2685 1401] [1473 2730]] Feature Importance</t>
-  </si>
-  <si>
-    <t>-------------------- Random Forest ----------------------- Accuracy: 0.7061 F1 score: 0.6671 Recall: 0.5808 Precision: 0.7836 Sensitivity : 0.8350 Specificity : 0.5808 clasification report: precision recall f1-score support 0.0 0.66 0.84 0.74 4086 1.0 0.78 0.58 0.67 4203 accuracy 0.71 8289 macro avg 0.72 0.71 0.70 8289 weighted avg 0.72 0.71 0.70 8289 confussion matrix: [[3412 674] [1762 2441]] Feature Importance</t>
-  </si>
-  <si>
     <t>Logistic Regression</t>
   </si>
   <si>
@@ -369,6 +362,27 @@
   </si>
   <si>
     <t>-------------------- Random Forest ----------------------- Accuracy: 0.7516 F1 score: 0.6960 Recall: 0.6397 Precision: 0.7632 Sensitivity : 0.8412 Specificity : 0.6397 clasification report: precision recall f1-score support 0 0.74 0.84 0.79 170 1 0.76 0.64 0.70 136 accuracy 0.75 306 macro avg 0.75 0.74 0.74 306 weighted avg 0.75 0.75 0.75 306 confussion matrix: [[143 27] [ 49 87]] Feature Importance</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'MATCHUP',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'UID_STG',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'PIE']</t>
+  </si>
+  <si>
+    <t>['PTS', 'FGA', 'FG3M', 'FTM', 'PFD', 'REB', 'TD3']</t>
+  </si>
+  <si>
+    <t>----------------- Logistic Regression -------------------- Accuracy: 0.8125 F1 score: 0.4000 Recall: 1.0000 Precision: 0.2500 Sensitivity : 0.8000 Specificity : 1.0000 clasification report: precision recall f1-score support 0 1.00 0.80 0.89 15 1 0.25 1.00 0.40 1 accuracy 0.81 16 macro avg 0.62 0.90 0.64 16 weighted avg 0.95 0.81 0.86 16 confussion matrix: [[12 3] [ 0 1]] Feature Importance</t>
+  </si>
+  <si>
+    <t>-------------------- Decision Tree ----------------------- Accuracy: 0.6875 F1 score: 0.2857 Recall: 1.0000 Precision: 0.1667 Sensitivity : 0.6667 Specificity : 1.0000 clasification report: precision recall f1-score support 0 1.00 0.67 0.80 15 1 0.17 1.00 0.29 1 accuracy 0.69 16 macro avg 0.58 0.83 0.54 16 weighted avg 0.95 0.69 0.77 16 confussion matrix: [[10 5] [ 0 1]] Feature Importance</t>
+  </si>
+  <si>
+    <t>-------------------- Random Forest ----------------------- Accuracy: 0.8125 F1 score: 0.0000 Recall: 0.0000 Precision: 0.0000 Sensitivity : 0.8667 Specificity : 0.0000 clasification report: precision recall f1-score support 0 0.93 0.87 0.90 15 1 0.00 0.00 0.00 1 accuracy 0.81 16 macro avg 0.46 0.43 0.45 16 weighted avg 0.87 0.81 0.84 16 confussion matrix: [[13 2] [ 1 0]] Feature Importance</t>
   </si>
 </sst>
 </file>
@@ -763,10 +777,1461 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF3941A6-879A-49D7-BC26-EB8827776FDC}">
+  <dimension ref="A1:K112"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="R47" sqref="R47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="10" max="10" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" t="s">
+        <v>39</v>
+      </c>
+      <c r="D49" t="s">
+        <v>40</v>
+      </c>
+      <c r="E49" t="s">
+        <v>41</v>
+      </c>
+      <c r="F49" t="s">
+        <v>42</v>
+      </c>
+      <c r="G49" t="s">
+        <v>43</v>
+      </c>
+      <c r="H49" t="s">
+        <v>44</v>
+      </c>
+      <c r="I49" t="s">
+        <v>45</v>
+      </c>
+      <c r="J49" t="s">
+        <v>46</v>
+      </c>
+      <c r="K49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>0</v>
+      </c>
+      <c r="B50" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50">
+        <v>0.6875</v>
+      </c>
+      <c r="D50">
+        <v>0.28571400000000002</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>0.16666700000000001</v>
+      </c>
+      <c r="G50">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>0.84166700000000005</v>
+      </c>
+      <c r="J50">
+        <v>0.17260300000000001</v>
+      </c>
+      <c r="K50">
+        <v>2.9791999999999999E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51">
+        <v>0.8125</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0.86666699999999997</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0.78333299999999995</v>
+      </c>
+      <c r="J51">
+        <v>0.25055500000000003</v>
+      </c>
+      <c r="K51">
+        <v>6.2778E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>2</v>
+      </c>
+      <c r="B52" t="s">
+        <v>99</v>
+      </c>
+      <c r="C52">
+        <v>0.8125</v>
+      </c>
+      <c r="D52">
+        <v>0.4</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>0.25</v>
+      </c>
+      <c r="G52">
+        <v>0.8</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52" t="s">
+        <v>100</v>
+      </c>
+      <c r="J52" t="s">
+        <v>100</v>
+      </c>
+      <c r="K52" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>99</v>
+      </c>
+      <c r="E54" t="s">
+        <v>48</v>
+      </c>
+      <c r="I54" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>50</v>
+      </c>
+      <c r="C55" t="s">
+        <v>51</v>
+      </c>
+      <c r="F55" t="s">
+        <v>50</v>
+      </c>
+      <c r="G55" t="s">
+        <v>51</v>
+      </c>
+      <c r="J55" t="s">
+        <v>50</v>
+      </c>
+      <c r="K55" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>7</v>
+      </c>
+      <c r="B56" t="s">
+        <v>70</v>
+      </c>
+      <c r="C56">
+        <v>1.158568</v>
+      </c>
+      <c r="E56">
+        <v>15</v>
+      </c>
+      <c r="F56" t="s">
+        <v>54</v>
+      </c>
+      <c r="G56">
+        <v>0.70218199999999997</v>
+      </c>
+      <c r="I56">
+        <v>15</v>
+      </c>
+      <c r="J56" t="s">
+        <v>54</v>
+      </c>
+      <c r="K56">
+        <v>0.27452700000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>9</v>
+      </c>
+      <c r="B57" t="s">
+        <v>60</v>
+      </c>
+      <c r="C57">
+        <v>0.58315700000000004</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="F57" t="s">
+        <v>76</v>
+      </c>
+      <c r="G57">
+        <v>0.14178199999999999</v>
+      </c>
+      <c r="I57">
+        <v>3</v>
+      </c>
+      <c r="J57" t="s">
+        <v>72</v>
+      </c>
+      <c r="K57">
+        <v>0.13321</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>12</v>
+      </c>
+      <c r="B58" t="s">
+        <v>57</v>
+      </c>
+      <c r="C58">
+        <v>0.53741799999999995</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58" t="s">
+        <v>65</v>
+      </c>
+      <c r="G58">
+        <v>0.108025</v>
+      </c>
+      <c r="I58">
+        <v>4</v>
+      </c>
+      <c r="J58" t="s">
+        <v>56</v>
+      </c>
+      <c r="K58">
+        <v>0.102537</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>15</v>
+      </c>
+      <c r="B59" t="s">
+        <v>54</v>
+      </c>
+      <c r="C59">
+        <v>0.48704399999999998</v>
+      </c>
+      <c r="E59">
+        <v>16</v>
+      </c>
+      <c r="F59" t="s">
+        <v>63</v>
+      </c>
+      <c r="G59">
+        <v>4.8010999999999998E-2</v>
+      </c>
+      <c r="I59">
+        <v>9</v>
+      </c>
+      <c r="J59" t="s">
+        <v>60</v>
+      </c>
+      <c r="K59">
+        <v>8.4919999999999995E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>16</v>
+      </c>
+      <c r="B60" t="s">
+        <v>63</v>
+      </c>
+      <c r="C60">
+        <v>0.415269</v>
+      </c>
+      <c r="E60">
+        <v>4</v>
+      </c>
+      <c r="F60" t="s">
+        <v>56</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>2</v>
+      </c>
+      <c r="J60" t="s">
+        <v>76</v>
+      </c>
+      <c r="K60">
+        <v>8.0950999999999995E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>11</v>
+      </c>
+      <c r="B61" t="s">
+        <v>59</v>
+      </c>
+      <c r="C61">
+        <v>0.323324</v>
+      </c>
+      <c r="E61">
+        <v>5</v>
+      </c>
+      <c r="F61" t="s">
+        <v>74</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>10</v>
+      </c>
+      <c r="J61" t="s">
+        <v>62</v>
+      </c>
+      <c r="K61">
+        <v>5.1511000000000001E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>5</v>
+      </c>
+      <c r="B62" t="s">
+        <v>74</v>
+      </c>
+      <c r="C62">
+        <v>0.145508</v>
+      </c>
+      <c r="E62">
+        <v>6</v>
+      </c>
+      <c r="F62" t="s">
+        <v>77</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>14</v>
+      </c>
+      <c r="J62" t="s">
+        <v>73</v>
+      </c>
+      <c r="K62">
+        <v>5.0974999999999999E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>2</v>
+      </c>
+      <c r="B63" t="s">
+        <v>76</v>
+      </c>
+      <c r="C63">
+        <v>0.122044</v>
+      </c>
+      <c r="E63">
+        <v>7</v>
+      </c>
+      <c r="F63" t="s">
+        <v>70</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>7</v>
+      </c>
+      <c r="J63" t="s">
+        <v>70</v>
+      </c>
+      <c r="K63">
+        <v>3.9187E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>6</v>
+      </c>
+      <c r="B64" t="s">
+        <v>77</v>
+      </c>
+      <c r="C64">
+        <v>0.108069</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64" t="s">
+        <v>69</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64" t="s">
+        <v>65</v>
+      </c>
+      <c r="K64">
+        <v>3.3119000000000003E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>14</v>
+      </c>
+      <c r="B65" t="s">
+        <v>73</v>
+      </c>
+      <c r="C65">
+        <v>6.4335000000000003E-2</v>
+      </c>
+      <c r="E65">
+        <v>9</v>
+      </c>
+      <c r="F65" t="s">
+        <v>60</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>8</v>
+      </c>
+      <c r="J65" t="s">
+        <v>61</v>
+      </c>
+      <c r="K65">
+        <v>3.0144000000000001E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>3</v>
+      </c>
+      <c r="B66" t="s">
+        <v>72</v>
+      </c>
+      <c r="C66">
+        <v>4.8704999999999998E-2</v>
+      </c>
+      <c r="E66">
+        <v>10</v>
+      </c>
+      <c r="F66" t="s">
+        <v>62</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>13</v>
+      </c>
+      <c r="J66" t="s">
+        <v>75</v>
+      </c>
+      <c r="K66">
+        <v>2.6141999999999999E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>10</v>
+      </c>
+      <c r="B67" t="s">
+        <v>62</v>
+      </c>
+      <c r="C67">
+        <v>4.2638000000000002E-2</v>
+      </c>
+      <c r="E67">
+        <v>11</v>
+      </c>
+      <c r="F67" t="s">
+        <v>59</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>11</v>
+      </c>
+      <c r="J67" t="s">
+        <v>59</v>
+      </c>
+      <c r="K67">
+        <v>2.3543000000000001E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>4</v>
+      </c>
+      <c r="B68" t="s">
+        <v>56</v>
+      </c>
+      <c r="C68">
+        <v>1.5841000000000001E-2</v>
+      </c>
+      <c r="E68">
+        <v>12</v>
+      </c>
+      <c r="F68" t="s">
+        <v>57</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68" t="s">
+        <v>69</v>
+      </c>
+      <c r="K68">
+        <v>2.351E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>13</v>
+      </c>
+      <c r="B69" t="s">
+        <v>75</v>
+      </c>
+      <c r="C69">
+        <v>-6.8706000000000003E-2</v>
+      </c>
+      <c r="E69">
+        <v>13</v>
+      </c>
+      <c r="F69" t="s">
+        <v>75</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>12</v>
+      </c>
+      <c r="J69" t="s">
+        <v>57</v>
+      </c>
+      <c r="K69">
+        <v>2.1898000000000001E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>0</v>
+      </c>
+      <c r="B70" t="s">
+        <v>65</v>
+      </c>
+      <c r="C70">
+        <v>-0.116642</v>
+      </c>
+      <c r="E70">
+        <v>14</v>
+      </c>
+      <c r="F70" t="s">
+        <v>73</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>16</v>
+      </c>
+      <c r="J70" t="s">
+        <v>63</v>
+      </c>
+      <c r="K70">
+        <v>1.3587999999999999E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>1</v>
+      </c>
+      <c r="B71" t="s">
+        <v>69</v>
+      </c>
+      <c r="C71">
+        <v>-0.17480200000000001</v>
+      </c>
+      <c r="E71">
+        <v>3</v>
+      </c>
+      <c r="F71" t="s">
+        <v>72</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>5</v>
+      </c>
+      <c r="J71" t="s">
+        <v>74</v>
+      </c>
+      <c r="K71">
+        <v>9.9159999999999995E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>8</v>
+      </c>
+      <c r="B72" t="s">
+        <v>61</v>
+      </c>
+      <c r="C72">
+        <v>-0.36189700000000002</v>
+      </c>
+      <c r="E72">
+        <v>8</v>
+      </c>
+      <c r="F72" t="s">
+        <v>61</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>6</v>
+      </c>
+      <c r="J72" t="s">
+        <v>77</v>
+      </c>
+      <c r="K72">
+        <v>3.2299999999999999E-4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>50</v>
+      </c>
+      <c r="C75" t="s">
+        <v>51</v>
+      </c>
+      <c r="F75" t="s">
+        <v>50</v>
+      </c>
+      <c r="G75" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>15</v>
+      </c>
+      <c r="B76" t="s">
+        <v>54</v>
+      </c>
+      <c r="C76">
+        <v>0.70218199999999997</v>
+      </c>
+      <c r="E76">
+        <v>15</v>
+      </c>
+      <c r="F76" t="s">
+        <v>54</v>
+      </c>
+      <c r="G76">
+        <v>0.27452700000000002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>2</v>
+      </c>
+      <c r="B77" t="s">
+        <v>76</v>
+      </c>
+      <c r="C77">
+        <v>0.14178199999999999</v>
+      </c>
+      <c r="E77">
+        <v>3</v>
+      </c>
+      <c r="F77" t="s">
+        <v>72</v>
+      </c>
+      <c r="G77">
+        <v>0.13321</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>0</v>
+      </c>
+      <c r="B78" t="s">
+        <v>65</v>
+      </c>
+      <c r="C78">
+        <v>0.108025</v>
+      </c>
+      <c r="E78">
+        <v>4</v>
+      </c>
+      <c r="F78" t="s">
+        <v>56</v>
+      </c>
+      <c r="G78">
+        <v>0.102537</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>16</v>
+      </c>
+      <c r="B79" t="s">
+        <v>63</v>
+      </c>
+      <c r="C79">
+        <v>4.8010999999999998E-2</v>
+      </c>
+      <c r="E79">
+        <v>9</v>
+      </c>
+      <c r="F79" t="s">
+        <v>60</v>
+      </c>
+      <c r="G79">
+        <v>8.4919999999999995E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>4</v>
+      </c>
+      <c r="B80" t="s">
+        <v>56</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>2</v>
+      </c>
+      <c r="F80" t="s">
+        <v>76</v>
+      </c>
+      <c r="G80">
+        <v>8.0950999999999995E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>5</v>
+      </c>
+      <c r="B81" t="s">
+        <v>74</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>10</v>
+      </c>
+      <c r="F81" t="s">
+        <v>62</v>
+      </c>
+      <c r="G81">
+        <v>5.1511000000000001E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>6</v>
+      </c>
+      <c r="B82" t="s">
+        <v>77</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>14</v>
+      </c>
+      <c r="F82" t="s">
+        <v>73</v>
+      </c>
+      <c r="G82">
+        <v>5.0974999999999999E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>7</v>
+      </c>
+      <c r="B83" t="s">
+        <v>70</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>7</v>
+      </c>
+      <c r="F83" t="s">
+        <v>70</v>
+      </c>
+      <c r="G83">
+        <v>3.9187E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>1</v>
+      </c>
+      <c r="B84" t="s">
+        <v>69</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84" t="s">
+        <v>65</v>
+      </c>
+      <c r="G84">
+        <v>3.3119000000000003E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>9</v>
+      </c>
+      <c r="B85" t="s">
+        <v>60</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>8</v>
+      </c>
+      <c r="F85" t="s">
+        <v>61</v>
+      </c>
+      <c r="G85">
+        <v>3.0144000000000001E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>10</v>
+      </c>
+      <c r="B86" t="s">
+        <v>62</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>13</v>
+      </c>
+      <c r="F86" t="s">
+        <v>75</v>
+      </c>
+      <c r="G86">
+        <v>2.6141999999999999E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>11</v>
+      </c>
+      <c r="B87" t="s">
+        <v>59</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>11</v>
+      </c>
+      <c r="F87" t="s">
+        <v>59</v>
+      </c>
+      <c r="G87">
+        <v>2.3543000000000001E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>12</v>
+      </c>
+      <c r="B88" t="s">
+        <v>57</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88" t="s">
+        <v>69</v>
+      </c>
+      <c r="G88">
+        <v>2.351E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>13</v>
+      </c>
+      <c r="B89" t="s">
+        <v>75</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>12</v>
+      </c>
+      <c r="F89" t="s">
+        <v>57</v>
+      </c>
+      <c r="G89">
+        <v>2.1898000000000001E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>14</v>
+      </c>
+      <c r="B90" t="s">
+        <v>73</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>16</v>
+      </c>
+      <c r="F90" t="s">
+        <v>63</v>
+      </c>
+      <c r="G90">
+        <v>1.3587999999999999E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>3</v>
+      </c>
+      <c r="B91" t="s">
+        <v>72</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>5</v>
+      </c>
+      <c r="F91" t="s">
+        <v>74</v>
+      </c>
+      <c r="G91">
+        <v>9.9159999999999995E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>8</v>
+      </c>
+      <c r="B92" t="s">
+        <v>61</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>6</v>
+      </c>
+      <c r="F92" t="s">
+        <v>77</v>
+      </c>
+      <c r="G92">
+        <v>3.2299999999999999E-4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>50</v>
+      </c>
+      <c r="C95" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>15</v>
+      </c>
+      <c r="B96" t="s">
+        <v>54</v>
+      </c>
+      <c r="C96">
+        <v>0.27452700000000002</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>3</v>
+      </c>
+      <c r="B97" t="s">
+        <v>72</v>
+      </c>
+      <c r="C97">
+        <v>0.13321</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>4</v>
+      </c>
+      <c r="B98" t="s">
+        <v>56</v>
+      </c>
+      <c r="C98">
+        <v>0.102537</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>9</v>
+      </c>
+      <c r="B99" t="s">
+        <v>60</v>
+      </c>
+      <c r="C99">
+        <v>8.4919999999999995E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>2</v>
+      </c>
+      <c r="B100" t="s">
+        <v>76</v>
+      </c>
+      <c r="C100">
+        <v>8.0950999999999995E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>10</v>
+      </c>
+      <c r="B101" t="s">
+        <v>62</v>
+      </c>
+      <c r="C101">
+        <v>5.1511000000000001E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>14</v>
+      </c>
+      <c r="B102" t="s">
+        <v>73</v>
+      </c>
+      <c r="C102">
+        <v>5.0974999999999999E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>7</v>
+      </c>
+      <c r="B103" t="s">
+        <v>70</v>
+      </c>
+      <c r="C103">
+        <v>3.9187E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>0</v>
+      </c>
+      <c r="B104" t="s">
+        <v>65</v>
+      </c>
+      <c r="C104">
+        <v>3.3119000000000003E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>8</v>
+      </c>
+      <c r="B105" t="s">
+        <v>61</v>
+      </c>
+      <c r="C105">
+        <v>3.0144000000000001E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>13</v>
+      </c>
+      <c r="B106" t="s">
+        <v>75</v>
+      </c>
+      <c r="C106">
+        <v>2.6141999999999999E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>11</v>
+      </c>
+      <c r="B107" t="s">
+        <v>59</v>
+      </c>
+      <c r="C107">
+        <v>2.3543000000000001E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>1</v>
+      </c>
+      <c r="B108" t="s">
+        <v>69</v>
+      </c>
+      <c r="C108">
+        <v>2.351E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>12</v>
+      </c>
+      <c r="B109" t="s">
+        <v>57</v>
+      </c>
+      <c r="C109">
+        <v>2.1898000000000001E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>16</v>
+      </c>
+      <c r="B110" t="s">
+        <v>63</v>
+      </c>
+      <c r="C110">
+        <v>1.3587999999999999E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>5</v>
+      </c>
+      <c r="B111" t="s">
+        <v>74</v>
+      </c>
+      <c r="C111">
+        <v>9.9159999999999995E-3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>6</v>
+      </c>
+      <c r="B112" t="s">
+        <v>77</v>
+      </c>
+      <c r="C112">
+        <v>3.2299999999999999E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BFC52AC-9151-4CD7-963B-7D9C4D6F244E}">
   <dimension ref="A1:K109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="J56" sqref="J56"/>
     </sheetView>
   </sheetViews>
@@ -1079,7 +2544,7 @@
         <v>2</v>
       </c>
       <c r="B50" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C50">
         <v>0.72548999999999997</v>
@@ -1100,23 +2565,23 @@
         <v>0.735294</v>
       </c>
       <c r="I50" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J50" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K50" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E52" t="s">
         <v>48</v>
@@ -2005,1261 +3470,12 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>105</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6140052F-D75D-445F-96D6-37DE60191913}">
-  <dimension ref="A1:K137"/>
-  <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>38</v>
-      </c>
-      <c r="C47" t="s">
-        <v>39</v>
-      </c>
-      <c r="D47" t="s">
-        <v>40</v>
-      </c>
-      <c r="E47" t="s">
-        <v>41</v>
-      </c>
-      <c r="F47" t="s">
-        <v>42</v>
-      </c>
-      <c r="G47" t="s">
-        <v>43</v>
-      </c>
-      <c r="H47" t="s">
-        <v>44</v>
-      </c>
-      <c r="I47" t="s">
-        <v>45</v>
-      </c>
-      <c r="J47" t="s">
-        <v>46</v>
-      </c>
-      <c r="K47" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>0</v>
-      </c>
-      <c r="B48" t="s">
-        <v>48</v>
-      </c>
-      <c r="C48">
-        <v>0.64705900000000005</v>
-      </c>
-      <c r="D48">
-        <v>0.60869600000000001</v>
-      </c>
-      <c r="E48">
-        <v>0.61764699999999995</v>
-      </c>
-      <c r="F48">
-        <v>0.6</v>
-      </c>
-      <c r="G48">
-        <v>0.67058799999999996</v>
-      </c>
-      <c r="H48">
-        <v>0.61764699999999995</v>
-      </c>
-      <c r="I48">
-        <v>0.666099</v>
-      </c>
-      <c r="J48">
-        <v>4.0877999999999998E-2</v>
-      </c>
-      <c r="K48">
-        <v>1.671E-3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>1</v>
-      </c>
-      <c r="B49" t="s">
-        <v>49</v>
-      </c>
-      <c r="C49">
-        <v>0.75163400000000002</v>
-      </c>
-      <c r="D49">
-        <v>0.69599999999999995</v>
-      </c>
-      <c r="E49">
-        <v>0.639706</v>
-      </c>
-      <c r="F49">
-        <v>0.763158</v>
-      </c>
-      <c r="G49">
-        <v>0.84117600000000003</v>
-      </c>
-      <c r="H49">
-        <v>0.639706</v>
-      </c>
-      <c r="I49">
-        <v>0.73343100000000006</v>
-      </c>
-      <c r="J49">
-        <v>4.7407999999999999E-2</v>
-      </c>
-      <c r="K49">
-        <v>2.248E-3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>2</v>
-      </c>
-      <c r="B50" t="s">
-        <v>101</v>
-      </c>
-      <c r="C50">
-        <v>0.72548999999999997</v>
-      </c>
-      <c r="D50">
-        <v>0.70422499999999999</v>
-      </c>
-      <c r="E50">
-        <v>0.735294</v>
-      </c>
-      <c r="F50">
-        <v>0.67567600000000005</v>
-      </c>
-      <c r="G50">
-        <v>0.71764700000000003</v>
-      </c>
-      <c r="H50">
-        <v>0.735294</v>
-      </c>
-      <c r="I50" t="s">
-        <v>102</v>
-      </c>
-      <c r="J50" t="s">
-        <v>102</v>
-      </c>
-      <c r="K50" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>50</v>
-      </c>
-      <c r="C53" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>22</v>
-      </c>
-      <c r="B54" t="s">
-        <v>63</v>
-      </c>
-      <c r="C54">
-        <v>0.341335</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>21</v>
-      </c>
-      <c r="B55" t="s">
-        <v>54</v>
-      </c>
-      <c r="C55">
-        <v>0.13599</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>4</v>
-      </c>
-      <c r="B56" t="s">
-        <v>64</v>
-      </c>
-      <c r="C56">
-        <v>0.12767700000000001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>25</v>
-      </c>
-      <c r="B57" t="s">
-        <v>66</v>
-      </c>
-      <c r="C57">
-        <v>0.119114</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>16</v>
-      </c>
-      <c r="B58" t="s">
-        <v>57</v>
-      </c>
-      <c r="C58">
-        <v>0.108239</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>19</v>
-      </c>
-      <c r="B59" t="s">
-        <v>67</v>
-      </c>
-      <c r="C59">
-        <v>6.4885999999999999E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>10</v>
-      </c>
-      <c r="B60" t="s">
-        <v>70</v>
-      </c>
-      <c r="C60">
-        <v>6.2368E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>18</v>
-      </c>
-      <c r="B61" t="s">
-        <v>73</v>
-      </c>
-      <c r="C61">
-        <v>6.0803000000000003E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>20</v>
-      </c>
-      <c r="B62" t="s">
-        <v>58</v>
-      </c>
-      <c r="C62">
-        <v>5.5177999999999998E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>15</v>
-      </c>
-      <c r="B63" t="s">
-        <v>59</v>
-      </c>
-      <c r="C63">
-        <v>4.1543999999999998E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>0</v>
-      </c>
-      <c r="B64" t="s">
-        <v>65</v>
-      </c>
-      <c r="C64">
-        <v>9.0430000000000007E-3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>23</v>
-      </c>
-      <c r="B65" t="s">
-        <v>52</v>
-      </c>
-      <c r="C65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>12</v>
-      </c>
-      <c r="B66" t="s">
-        <v>68</v>
-      </c>
-      <c r="C66">
-        <v>-5.5640000000000004E-3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>1</v>
-      </c>
-      <c r="B67" t="s">
-        <v>69</v>
-      </c>
-      <c r="C67">
-        <v>-1.2196E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>13</v>
-      </c>
-      <c r="B68" t="s">
-        <v>60</v>
-      </c>
-      <c r="C68">
-        <v>-2.2449E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>8</v>
-      </c>
-      <c r="B69" t="s">
-        <v>74</v>
-      </c>
-      <c r="C69">
-        <v>-3.2764000000000001E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>2</v>
-      </c>
-      <c r="B70" t="s">
-        <v>71</v>
-      </c>
-      <c r="C70">
-        <v>-3.9996999999999998E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>5</v>
-      </c>
-      <c r="B71" t="s">
-        <v>72</v>
-      </c>
-      <c r="C71">
-        <v>-4.6099000000000001E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>7</v>
-      </c>
-      <c r="B72" t="s">
-        <v>55</v>
-      </c>
-      <c r="C72">
-        <v>-4.8107999999999998E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>11</v>
-      </c>
-      <c r="B73" t="s">
-        <v>61</v>
-      </c>
-      <c r="C73">
-        <v>-6.7932000000000006E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>14</v>
-      </c>
-      <c r="B74" t="s">
-        <v>62</v>
-      </c>
-      <c r="C74">
-        <v>-0.103259</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>17</v>
-      </c>
-      <c r="B75" t="s">
-        <v>75</v>
-      </c>
-      <c r="C75">
-        <v>-0.110817</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>9</v>
-      </c>
-      <c r="B76" t="s">
-        <v>77</v>
-      </c>
-      <c r="C76">
-        <v>-0.16590199999999999</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>24</v>
-      </c>
-      <c r="B77" t="s">
-        <v>53</v>
-      </c>
-      <c r="C77">
-        <v>-0.36752800000000002</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>6</v>
-      </c>
-      <c r="B78" t="s">
-        <v>56</v>
-      </c>
-      <c r="C78">
-        <v>-0.41843399999999997</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>3</v>
-      </c>
-      <c r="B79" t="s">
-        <v>76</v>
-      </c>
-      <c r="C79">
-        <v>-1.1728339999999999</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
-        <v>50</v>
-      </c>
-      <c r="C82" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>21</v>
-      </c>
-      <c r="B83" t="s">
-        <v>54</v>
-      </c>
-      <c r="C83">
-        <v>0.328457</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>0</v>
-      </c>
-      <c r="B84" t="s">
-        <v>65</v>
-      </c>
-      <c r="C84">
-        <v>0.15127499999999999</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>25</v>
-      </c>
-      <c r="B85" t="s">
-        <v>66</v>
-      </c>
-      <c r="C85">
-        <v>9.6034999999999995E-2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>20</v>
-      </c>
-      <c r="B86" t="s">
-        <v>58</v>
-      </c>
-      <c r="C86">
-        <v>4.4051E-2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>3</v>
-      </c>
-      <c r="B87" t="s">
-        <v>76</v>
-      </c>
-      <c r="C87">
-        <v>4.3930999999999998E-2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>5</v>
-      </c>
-      <c r="B88" t="s">
-        <v>72</v>
-      </c>
-      <c r="C88">
-        <v>4.2941E-2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>13</v>
-      </c>
-      <c r="B89" t="s">
-        <v>60</v>
-      </c>
-      <c r="C89">
-        <v>3.8825999999999999E-2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>2</v>
-      </c>
-      <c r="B90" t="s">
-        <v>71</v>
-      </c>
-      <c r="C90">
-        <v>3.8013999999999999E-2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>14</v>
-      </c>
-      <c r="B91" t="s">
-        <v>62</v>
-      </c>
-      <c r="C91">
-        <v>2.7487000000000001E-2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>12</v>
-      </c>
-      <c r="B92" t="s">
-        <v>68</v>
-      </c>
-      <c r="C92">
-        <v>2.7348999999999998E-2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>6</v>
-      </c>
-      <c r="B93" t="s">
-        <v>56</v>
-      </c>
-      <c r="C93">
-        <v>2.6929999999999999E-2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>11</v>
-      </c>
-      <c r="B94" t="s">
-        <v>61</v>
-      </c>
-      <c r="C94">
-        <v>2.3095999999999998E-2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>19</v>
-      </c>
-      <c r="B95" t="s">
-        <v>67</v>
-      </c>
-      <c r="C95">
-        <v>1.9612000000000001E-2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="4">
-        <v>18</v>
-      </c>
-      <c r="B96" t="s">
-        <v>73</v>
-      </c>
-      <c r="C96">
-        <v>1.7947999999999999E-2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>1</v>
-      </c>
-      <c r="B97" t="s">
-        <v>69</v>
-      </c>
-      <c r="C97">
-        <v>1.4851E-2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>15</v>
-      </c>
-      <c r="B98" t="s">
-        <v>59</v>
-      </c>
-      <c r="C98">
-        <v>1.2970000000000001E-2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>16</v>
-      </c>
-      <c r="B99" t="s">
-        <v>57</v>
-      </c>
-      <c r="C99">
-        <v>1.0217E-2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>7</v>
-      </c>
-      <c r="B100" t="s">
-        <v>55</v>
-      </c>
-      <c r="C100">
-        <v>9.0530000000000003E-3</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>4</v>
-      </c>
-      <c r="B101" t="s">
-        <v>64</v>
-      </c>
-      <c r="C101">
-        <v>8.6130000000000009E-3</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>10</v>
-      </c>
-      <c r="B102" t="s">
-        <v>70</v>
-      </c>
-      <c r="C102">
-        <v>6.9540000000000001E-3</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>17</v>
-      </c>
-      <c r="B103" t="s">
-        <v>75</v>
-      </c>
-      <c r="C103">
-        <v>5.7759999999999999E-3</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <v>8</v>
-      </c>
-      <c r="B104" t="s">
-        <v>74</v>
-      </c>
-      <c r="C104">
-        <v>2.8080000000000002E-3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <v>9</v>
-      </c>
-      <c r="B105" t="s">
-        <v>77</v>
-      </c>
-      <c r="C105">
-        <v>2.8080000000000002E-3</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <v>22</v>
-      </c>
-      <c r="B106" t="s">
-        <v>63</v>
-      </c>
-      <c r="C106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <v>23</v>
-      </c>
-      <c r="B107" t="s">
-        <v>52</v>
-      </c>
-      <c r="C107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <v>24</v>
-      </c>
-      <c r="B108" t="s">
-        <v>53</v>
-      </c>
-      <c r="C108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B111" t="s">
-        <v>50</v>
-      </c>
-      <c r="C111" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112">
-        <v>21</v>
-      </c>
-      <c r="B112" t="s">
-        <v>54</v>
-      </c>
-      <c r="C112">
-        <v>0.30870500000000001</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <v>25</v>
-      </c>
-      <c r="B113" t="s">
-        <v>66</v>
-      </c>
-      <c r="C113">
-        <v>0.17326800000000001</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <v>20</v>
-      </c>
-      <c r="B114" t="s">
-        <v>58</v>
-      </c>
-      <c r="C114">
-        <v>6.5051999999999999E-2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <v>0</v>
-      </c>
-      <c r="B115" t="s">
-        <v>65</v>
-      </c>
-      <c r="C115">
-        <v>6.0749999999999998E-2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <v>4</v>
-      </c>
-      <c r="B116" t="s">
-        <v>64</v>
-      </c>
-      <c r="C116">
-        <v>5.0634999999999999E-2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117">
-        <v>3</v>
-      </c>
-      <c r="B117" t="s">
-        <v>76</v>
-      </c>
-      <c r="C117">
-        <v>4.4771999999999999E-2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118">
-        <v>1</v>
-      </c>
-      <c r="B118" t="s">
-        <v>69</v>
-      </c>
-      <c r="C118">
-        <v>4.3573000000000001E-2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119">
-        <v>12</v>
-      </c>
-      <c r="B119" t="s">
-        <v>68</v>
-      </c>
-      <c r="C119">
-        <v>3.8857999999999997E-2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120">
-        <v>2</v>
-      </c>
-      <c r="B120" t="s">
-        <v>71</v>
-      </c>
-      <c r="C120">
-        <v>3.2799000000000002E-2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121">
-        <v>11</v>
-      </c>
-      <c r="B121" t="s">
-        <v>61</v>
-      </c>
-      <c r="C121">
-        <v>2.9888000000000001E-2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122">
-        <v>6</v>
-      </c>
-      <c r="B122" t="s">
-        <v>56</v>
-      </c>
-      <c r="C122">
-        <v>2.8392000000000001E-2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123">
-        <v>14</v>
-      </c>
-      <c r="B123" t="s">
-        <v>62</v>
-      </c>
-      <c r="C123">
-        <v>2.3362999999999998E-2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124">
-        <v>13</v>
-      </c>
-      <c r="B124" t="s">
-        <v>60</v>
-      </c>
-      <c r="C124">
-        <v>1.4933E-2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125">
-        <v>18</v>
-      </c>
-      <c r="B125" t="s">
-        <v>73</v>
-      </c>
-      <c r="C125">
-        <v>1.3195E-2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126">
-        <v>9</v>
-      </c>
-      <c r="B126" t="s">
-        <v>77</v>
-      </c>
-      <c r="C126">
-        <v>1.0932000000000001E-2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127">
-        <v>17</v>
-      </c>
-      <c r="B127" t="s">
-        <v>75</v>
-      </c>
-      <c r="C127">
-        <v>1.0541E-2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128">
-        <v>19</v>
-      </c>
-      <c r="B128" t="s">
-        <v>67</v>
-      </c>
-      <c r="C128">
-        <v>9.9570000000000006E-3</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129">
-        <v>8</v>
-      </c>
-      <c r="B129" t="s">
-        <v>74</v>
-      </c>
-      <c r="C129">
-        <v>8.1790000000000005E-3</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130">
-        <v>7</v>
-      </c>
-      <c r="B130" t="s">
-        <v>55</v>
-      </c>
-      <c r="C130">
-        <v>7.9970000000000006E-3</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131">
-        <v>16</v>
-      </c>
-      <c r="B131" t="s">
-        <v>57</v>
-      </c>
-      <c r="C131">
-        <v>7.2719999999999998E-3</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132">
-        <v>15</v>
-      </c>
-      <c r="B132" t="s">
-        <v>59</v>
-      </c>
-      <c r="C132">
-        <v>5.9589999999999999E-3</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133">
-        <v>10</v>
-      </c>
-      <c r="B133" t="s">
-        <v>70</v>
-      </c>
-      <c r="C133">
-        <v>5.842E-3</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134">
-        <v>5</v>
-      </c>
-      <c r="B134" t="s">
-        <v>72</v>
-      </c>
-      <c r="C134">
-        <v>5.1380000000000002E-3</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135">
-        <v>22</v>
-      </c>
-      <c r="B135" t="s">
-        <v>63</v>
-      </c>
-      <c r="C135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136">
-        <v>23</v>
-      </c>
-      <c r="B136" t="s">
-        <v>52</v>
-      </c>
-      <c r="C136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137">
-        <v>24</v>
-      </c>
-      <c r="B137" t="s">
-        <v>53</v>
-      </c>
-      <c r="C137">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3586,7 +3802,7 @@
         <v>2</v>
       </c>
       <c r="B50" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C50">
         <v>0.71021800000000002</v>
@@ -3607,13 +3823,13 @@
         <v>0.71306199999999997</v>
       </c>
       <c r="I50" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J50" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K50" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -3623,7 +3839,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E52" t="s">
         <v>48</v>
@@ -4517,1255 +4733,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K137"/>
-  <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>38</v>
-      </c>
-      <c r="C47" t="s">
-        <v>39</v>
-      </c>
-      <c r="D47" t="s">
-        <v>40</v>
-      </c>
-      <c r="E47" t="s">
-        <v>41</v>
-      </c>
-      <c r="F47" t="s">
-        <v>42</v>
-      </c>
-      <c r="G47" t="s">
-        <v>43</v>
-      </c>
-      <c r="H47" t="s">
-        <v>44</v>
-      </c>
-      <c r="I47" t="s">
-        <v>45</v>
-      </c>
-      <c r="J47" t="s">
-        <v>46</v>
-      </c>
-      <c r="K47" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>0</v>
-      </c>
-      <c r="B48" t="s">
-        <v>48</v>
-      </c>
-      <c r="C48">
-        <v>0.65327500000000005</v>
-      </c>
-      <c r="D48">
-        <v>0.65514799999999995</v>
-      </c>
-      <c r="E48">
-        <v>0.649536</v>
-      </c>
-      <c r="F48">
-        <v>0.66085700000000003</v>
-      </c>
-      <c r="G48">
-        <v>0.65712199999999998</v>
-      </c>
-      <c r="H48">
-        <v>0.649536</v>
-      </c>
-      <c r="I48">
-        <v>0.66196299999999997</v>
-      </c>
-      <c r="J48">
-        <v>1.1653999999999999E-2</v>
-      </c>
-      <c r="K48">
-        <v>1.36E-4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>1</v>
-      </c>
-      <c r="B49" t="s">
-        <v>49</v>
-      </c>
-      <c r="C49">
-        <v>0.70611699999999999</v>
-      </c>
-      <c r="D49">
-        <v>0.66712199999999999</v>
-      </c>
-      <c r="E49">
-        <v>0.58077599999999996</v>
-      </c>
-      <c r="F49">
-        <v>0.78362799999999999</v>
-      </c>
-      <c r="G49">
-        <v>0.83504699999999998</v>
-      </c>
-      <c r="H49">
-        <v>0.58077599999999996</v>
-      </c>
-      <c r="I49">
-        <v>0.71904299999999999</v>
-      </c>
-      <c r="J49">
-        <v>9.5589999999999998E-3</v>
-      </c>
-      <c r="K49">
-        <v>9.1000000000000003E-5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>2</v>
-      </c>
-      <c r="B50" t="s">
-        <v>101</v>
-      </c>
-      <c r="C50">
-        <v>0.71021800000000002</v>
-      </c>
-      <c r="D50">
-        <v>0.71391099999999996</v>
-      </c>
-      <c r="E50">
-        <v>0.71306199999999997</v>
-      </c>
-      <c r="F50">
-        <v>0.71476300000000004</v>
-      </c>
-      <c r="G50">
-        <v>0.70729299999999995</v>
-      </c>
-      <c r="H50">
-        <v>0.71306199999999997</v>
-      </c>
-      <c r="I50" t="s">
-        <v>102</v>
-      </c>
-      <c r="J50" t="s">
-        <v>102</v>
-      </c>
-      <c r="K50" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>50</v>
-      </c>
-      <c r="C53" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>6</v>
-      </c>
-      <c r="B54" t="s">
-        <v>56</v>
-      </c>
-      <c r="C54">
-        <v>0.149233</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>24</v>
-      </c>
-      <c r="B55" t="s">
-        <v>53</v>
-      </c>
-      <c r="C55">
-        <v>0.14490500000000001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>21</v>
-      </c>
-      <c r="B56" t="s">
-        <v>54</v>
-      </c>
-      <c r="C56">
-        <v>0.14092299999999999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>23</v>
-      </c>
-      <c r="B57" t="s">
-        <v>52</v>
-      </c>
-      <c r="C57">
-        <v>0.112377</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>16</v>
-      </c>
-      <c r="B58" t="s">
-        <v>57</v>
-      </c>
-      <c r="C58">
-        <v>6.2742000000000006E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>7</v>
-      </c>
-      <c r="B59" t="s">
-        <v>55</v>
-      </c>
-      <c r="C59">
-        <v>4.6068999999999999E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>20</v>
-      </c>
-      <c r="B60" t="s">
-        <v>58</v>
-      </c>
-      <c r="C60">
-        <v>3.0592999999999999E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>13</v>
-      </c>
-      <c r="B61" t="s">
-        <v>60</v>
-      </c>
-      <c r="C61">
-        <v>2.5346E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>11</v>
-      </c>
-      <c r="B62" t="s">
-        <v>61</v>
-      </c>
-      <c r="C62">
-        <v>2.3893000000000001E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>15</v>
-      </c>
-      <c r="B63" t="s">
-        <v>59</v>
-      </c>
-      <c r="C63">
-        <v>1.3828E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>14</v>
-      </c>
-      <c r="B64" t="s">
-        <v>62</v>
-      </c>
-      <c r="C64">
-        <v>2.7309999999999999E-3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>1</v>
-      </c>
-      <c r="B65" t="s">
-        <v>69</v>
-      </c>
-      <c r="C65">
-        <v>-6.4899999999999995E-4</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>19</v>
-      </c>
-      <c r="B66" t="s">
-        <v>67</v>
-      </c>
-      <c r="C66">
-        <v>-6.78E-4</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>25</v>
-      </c>
-      <c r="B67" t="s">
-        <v>66</v>
-      </c>
-      <c r="C67">
-        <v>-2.728E-3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>0</v>
-      </c>
-      <c r="B68" t="s">
-        <v>65</v>
-      </c>
-      <c r="C68">
-        <v>-4.261E-3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>12</v>
-      </c>
-      <c r="B69" t="s">
-        <v>68</v>
-      </c>
-      <c r="C69">
-        <v>-7.4310000000000001E-3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>4</v>
-      </c>
-      <c r="B70" t="s">
-        <v>64</v>
-      </c>
-      <c r="C70">
-        <v>-1.4178E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>5</v>
-      </c>
-      <c r="B71" t="s">
-        <v>72</v>
-      </c>
-      <c r="C71">
-        <v>-2.9673999999999999E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>10</v>
-      </c>
-      <c r="B72" t="s">
-        <v>70</v>
-      </c>
-      <c r="C72">
-        <v>-3.1323999999999998E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>2</v>
-      </c>
-      <c r="B73" t="s">
-        <v>71</v>
-      </c>
-      <c r="C73">
-        <v>-3.7684000000000002E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>8</v>
-      </c>
-      <c r="B74" t="s">
-        <v>74</v>
-      </c>
-      <c r="C74">
-        <v>-3.773E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>18</v>
-      </c>
-      <c r="B75" t="s">
-        <v>73</v>
-      </c>
-      <c r="C75">
-        <v>-3.9324999999999999E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>22</v>
-      </c>
-      <c r="B76" t="s">
-        <v>63</v>
-      </c>
-      <c r="C76">
-        <v>-7.5374999999999998E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>17</v>
-      </c>
-      <c r="B77" t="s">
-        <v>75</v>
-      </c>
-      <c r="C77">
-        <v>-7.9501000000000002E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>9</v>
-      </c>
-      <c r="B78" t="s">
-        <v>77</v>
-      </c>
-      <c r="C78">
-        <v>-0.18459</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>3</v>
-      </c>
-      <c r="B79" t="s">
-        <v>76</v>
-      </c>
-      <c r="C79">
-        <v>-0.25187399999999999</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
-        <v>50</v>
-      </c>
-      <c r="C82" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>21</v>
-      </c>
-      <c r="B83" t="s">
-        <v>54</v>
-      </c>
-      <c r="C83">
-        <v>0.30764599999999998</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>0</v>
-      </c>
-      <c r="B84" t="s">
-        <v>65</v>
-      </c>
-      <c r="C84">
-        <v>0.17601800000000001</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>25</v>
-      </c>
-      <c r="B85" t="s">
-        <v>66</v>
-      </c>
-      <c r="C85">
-        <v>7.4715000000000004E-2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>18</v>
-      </c>
-      <c r="B86" t="s">
-        <v>73</v>
-      </c>
-      <c r="C86">
-        <v>3.9504999999999998E-2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>2</v>
-      </c>
-      <c r="B87" t="s">
-        <v>71</v>
-      </c>
-      <c r="C87">
-        <v>3.7761000000000003E-2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>3</v>
-      </c>
-      <c r="B88" t="s">
-        <v>76</v>
-      </c>
-      <c r="C88">
-        <v>3.3187000000000001E-2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>12</v>
-      </c>
-      <c r="B89" t="s">
-        <v>68</v>
-      </c>
-      <c r="C89">
-        <v>3.1526999999999999E-2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>20</v>
-      </c>
-      <c r="B90" t="s">
-        <v>58</v>
-      </c>
-      <c r="C90">
-        <v>3.1434999999999998E-2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>13</v>
-      </c>
-      <c r="B91" t="s">
-        <v>60</v>
-      </c>
-      <c r="C91">
-        <v>2.9583000000000002E-2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>11</v>
-      </c>
-      <c r="B92" t="s">
-        <v>61</v>
-      </c>
-      <c r="C92">
-        <v>2.7108E-2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>19</v>
-      </c>
-      <c r="B93" t="s">
-        <v>67</v>
-      </c>
-      <c r="C93">
-        <v>2.5500999999999999E-2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>5</v>
-      </c>
-      <c r="B94" t="s">
-        <v>72</v>
-      </c>
-      <c r="C94">
-        <v>2.3772999999999999E-2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>14</v>
-      </c>
-      <c r="B95" t="s">
-        <v>62</v>
-      </c>
-      <c r="C95">
-        <v>2.1170000000000001E-2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="4">
-        <v>10</v>
-      </c>
-      <c r="B96" t="s">
-        <v>70</v>
-      </c>
-      <c r="C96">
-        <v>1.7004999999999999E-2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>9</v>
-      </c>
-      <c r="B97" t="s">
-        <v>77</v>
-      </c>
-      <c r="C97">
-        <v>1.6544E-2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>1</v>
-      </c>
-      <c r="B98" t="s">
-        <v>69</v>
-      </c>
-      <c r="C98">
-        <v>1.6199000000000002E-2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>15</v>
-      </c>
-      <c r="B99" t="s">
-        <v>59</v>
-      </c>
-      <c r="C99">
-        <v>1.5618E-2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>17</v>
-      </c>
-      <c r="B100" t="s">
-        <v>75</v>
-      </c>
-      <c r="C100">
-        <v>1.4529E-2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>8</v>
-      </c>
-      <c r="B101" t="s">
-        <v>74</v>
-      </c>
-      <c r="C101">
-        <v>1.44E-2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>6</v>
-      </c>
-      <c r="B102" t="s">
-        <v>56</v>
-      </c>
-      <c r="C102">
-        <v>1.3656E-2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>16</v>
-      </c>
-      <c r="B103" t="s">
-        <v>57</v>
-      </c>
-      <c r="C103">
-        <v>1.3572000000000001E-2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <v>7</v>
-      </c>
-      <c r="B104" t="s">
-        <v>55</v>
-      </c>
-      <c r="C104">
-        <v>9.7509999999999993E-3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <v>4</v>
-      </c>
-      <c r="B105" t="s">
-        <v>64</v>
-      </c>
-      <c r="C105">
-        <v>8.5900000000000004E-3</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <v>22</v>
-      </c>
-      <c r="B106" t="s">
-        <v>63</v>
-      </c>
-      <c r="C106">
-        <v>1.206E-3</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <v>23</v>
-      </c>
-      <c r="B107" t="s">
-        <v>52</v>
-      </c>
-      <c r="C107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <v>24</v>
-      </c>
-      <c r="B108" t="s">
-        <v>53</v>
-      </c>
-      <c r="C108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B111" t="s">
-        <v>50</v>
-      </c>
-      <c r="C111" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112">
-        <v>21</v>
-      </c>
-      <c r="B112" t="s">
-        <v>54</v>
-      </c>
-      <c r="C112">
-        <v>0.37833899999999998</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <v>3</v>
-      </c>
-      <c r="B113" t="s">
-        <v>76</v>
-      </c>
-      <c r="C113">
-        <v>0.158919</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <v>6</v>
-      </c>
-      <c r="B114" t="s">
-        <v>56</v>
-      </c>
-      <c r="C114">
-        <v>8.5361999999999993E-2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <v>18</v>
-      </c>
-      <c r="B115" t="s">
-        <v>73</v>
-      </c>
-      <c r="C115">
-        <v>7.2733000000000006E-2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <v>13</v>
-      </c>
-      <c r="B116" t="s">
-        <v>60</v>
-      </c>
-      <c r="C116">
-        <v>6.4578999999999998E-2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117">
-        <v>17</v>
-      </c>
-      <c r="B117" t="s">
-        <v>75</v>
-      </c>
-      <c r="C117">
-        <v>4.4343E-2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118">
-        <v>20</v>
-      </c>
-      <c r="B118" t="s">
-        <v>58</v>
-      </c>
-      <c r="C118">
-        <v>3.8163999999999997E-2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119">
-        <v>11</v>
-      </c>
-      <c r="B119" t="s">
-        <v>61</v>
-      </c>
-      <c r="C119">
-        <v>3.2414999999999999E-2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120">
-        <v>16</v>
-      </c>
-      <c r="B120" t="s">
-        <v>57</v>
-      </c>
-      <c r="C120">
-        <v>2.1795999999999999E-2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121">
-        <v>1</v>
-      </c>
-      <c r="B121" t="s">
-        <v>69</v>
-      </c>
-      <c r="C121">
-        <v>1.916E-2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122">
-        <v>0</v>
-      </c>
-      <c r="B122" t="s">
-        <v>65</v>
-      </c>
-      <c r="C122">
-        <v>1.8513999999999999E-2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123">
-        <v>2</v>
-      </c>
-      <c r="B123" t="s">
-        <v>71</v>
-      </c>
-      <c r="C123">
-        <v>1.7347000000000001E-2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124">
-        <v>4</v>
-      </c>
-      <c r="B124" t="s">
-        <v>64</v>
-      </c>
-      <c r="C124">
-        <v>9.5829999999999995E-3</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125">
-        <v>8</v>
-      </c>
-      <c r="B125" t="s">
-        <v>74</v>
-      </c>
-      <c r="C125">
-        <v>9.0039999999999999E-3</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126">
-        <v>12</v>
-      </c>
-      <c r="B126" t="s">
-        <v>68</v>
-      </c>
-      <c r="C126">
-        <v>7.463E-3</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127">
-        <v>22</v>
-      </c>
-      <c r="B127" t="s">
-        <v>63</v>
-      </c>
-      <c r="C127">
-        <v>6.9160000000000003E-3</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128">
-        <v>15</v>
-      </c>
-      <c r="B128" t="s">
-        <v>59</v>
-      </c>
-      <c r="C128">
-        <v>4.8780000000000004E-3</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129">
-        <v>7</v>
-      </c>
-      <c r="B129" t="s">
-        <v>55</v>
-      </c>
-      <c r="C129">
-        <v>3.225E-3</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130">
-        <v>14</v>
-      </c>
-      <c r="B130" t="s">
-        <v>62</v>
-      </c>
-      <c r="C130">
-        <v>2.9520000000000002E-3</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131">
-        <v>5</v>
-      </c>
-      <c r="B131" t="s">
-        <v>72</v>
-      </c>
-      <c r="C131">
-        <v>2.5400000000000002E-3</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132">
-        <v>9</v>
-      </c>
-      <c r="B132" t="s">
-        <v>77</v>
-      </c>
-      <c r="C132">
-        <v>1.768E-3</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133">
-        <v>10</v>
-      </c>
-      <c r="B133" t="s">
-        <v>70</v>
-      </c>
-      <c r="C133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134">
-        <v>19</v>
-      </c>
-      <c r="B134" t="s">
-        <v>67</v>
-      </c>
-      <c r="C134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135">
-        <v>23</v>
-      </c>
-      <c r="B135" t="s">
-        <v>52</v>
-      </c>
-      <c r="C135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136">
-        <v>24</v>
-      </c>
-      <c r="B136" t="s">
-        <v>53</v>
-      </c>
-      <c r="C136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137">
-        <v>25</v>
-      </c>
-      <c r="B137" t="s">
-        <v>66</v>
-      </c>
-      <c r="C137">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5574861-F8DA-4267-8CAA-F884E0E4B78B}">
   <dimension ref="A1:A19"/>
   <sheetViews>
